--- a/Version2.1/Project Outputs for Vreg_Learning_Platform/Generate Files/BOM/Bill of Materials.xlsx
+++ b/Version2.1/Project Outputs for Vreg_Learning_Platform/Generate Files/BOM/Bill of Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarkhan\Documents\Projects\Learning Platform for Swtiching Regulators\Altium\voltage-regulator-learning-platform\Version2.1\Project Outputs for Vreg_Learning_Platform\Generate Files\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarkhan\Desktop\Voltage Regulator Learning Platform\Version2.1\Project Outputs for Vreg_Learning_Platform\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A01CE4F7-CA13-4E54-B1E4-9E7DED67E8AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD287DDE-2238-4DFF-B173-2B4C4627B78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{06015F76-7C69-4D28-BBA7-DD53BA954F79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14250" xr2:uid="{3E24F2B4-F840-4B41-B103-DBB7B3842172}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,150 +333,153 @@
     <t>771-BZX84-C12-T/R</t>
   </si>
   <si>
-    <t>699359</t>
+    <t>644060</t>
   </si>
   <si>
     <t>D203</t>
   </si>
   <si>
-    <t>ATL431LIAQDQNR</t>
+    <t>ATL431AQDBZR</t>
   </si>
   <si>
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>- - -;Vo:2.5V to 36V</t>
+    <t>- -;Vdc min/max:-;Iout:-;Fmax:-</t>
+  </si>
+  <si>
+    <t>Integrated Circuit</t>
+  </si>
+  <si>
+    <t>SOT23-3 (DBZ)</t>
+  </si>
+  <si>
+    <t>296-47201-1-ND</t>
+  </si>
+  <si>
+    <t>595-ATL431AQDBZR</t>
+  </si>
+  <si>
+    <t>625459</t>
+  </si>
+  <si>
+    <t>D210, D502, D503, D504, D550, D741, D801, D804, D805, D806, D807, D808</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Wurth Elektronik</t>
+  </si>
+  <si>
+    <t>150060RS75000</t>
+  </si>
+  <si>
+    <t>Vf:2.4V;If:30mA;Ur:5V;Ir:10uA;Pmax:72mW</t>
+  </si>
+  <si>
+    <t>1608 (0603)</t>
+  </si>
+  <si>
+    <t>2322071</t>
+  </si>
+  <si>
+    <t>732-4978-1-ND</t>
+  </si>
+  <si>
+    <t>710-150060RS75000</t>
+  </si>
+  <si>
+    <t>646382</t>
+  </si>
+  <si>
+    <t>D211</t>
+  </si>
+  <si>
+    <t>SMDJ20A</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
+    <t>Vf:5V;If:-;Ur:20V;Ir:2uA;Pmax:6.5W</t>
+  </si>
+  <si>
+    <t>DO-214AB</t>
+  </si>
+  <si>
+    <t>2777300</t>
+  </si>
+  <si>
+    <t>SMDJ20ACT-ND</t>
+  </si>
+  <si>
+    <t>576-SMDJ20A</t>
+  </si>
+  <si>
+    <t>646377</t>
+  </si>
+  <si>
+    <t>D730</t>
+  </si>
+  <si>
+    <t>SMC5K40A-M3/I</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>Vf:-;If:-;Ur:40V;Ir:-;Pmax:5kW</t>
+  </si>
+  <si>
+    <t>SMC (DO-214AB)</t>
+  </si>
+  <si>
+    <t>SMC5K40A-M3/IGICT-ND</t>
+  </si>
+  <si>
+    <t>78-SMC5K40A-M3/I</t>
+  </si>
+  <si>
+    <t>646087</t>
+  </si>
+  <si>
+    <t>D731</t>
+  </si>
+  <si>
+    <t>PMEG6030ETPX</t>
+  </si>
+  <si>
+    <t>Vf:530mV;If:4.2A;Ur:60V;Ir:200uA;Pmax:750mW</t>
+  </si>
+  <si>
+    <t>SOD128</t>
+  </si>
+  <si>
+    <t>2311228</t>
+  </si>
+  <si>
+    <t>1727-1348-1-ND</t>
+  </si>
+  <si>
+    <t>771-PMEG6030ETPX</t>
+  </si>
+  <si>
+    <t>431580</t>
+  </si>
+  <si>
+    <t>G300</t>
+  </si>
+  <si>
+    <t>TLT807B0EPV</t>
+  </si>
+  <si>
+    <t>Linear Not applicable -;Vo:1.2V to 20V</t>
   </si>
   <si>
     <t>Power Supply</t>
   </si>
   <si>
-    <t>2SON or SOT23-3</t>
-  </si>
-  <si>
-    <t>296-ATL431LIAQDQNRCT-ND</t>
-  </si>
-  <si>
-    <t>595-ATL431LIAQDQNR</t>
-  </si>
-  <si>
-    <t>625459</t>
-  </si>
-  <si>
-    <t>D210, D502, D503, D504, D550, D741, D801, D804, D805, D806, D807, D808</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Wurth Elektronik</t>
-  </si>
-  <si>
-    <t>150060RS75000</t>
-  </si>
-  <si>
-    <t>Vf:2.4V;If:30mA;Ur:5V;Ir:10uA;Pmax:72mW</t>
-  </si>
-  <si>
-    <t>1608 (0603)</t>
-  </si>
-  <si>
-    <t>2322071</t>
-  </si>
-  <si>
-    <t>732-4978-1-ND</t>
-  </si>
-  <si>
-    <t>710-150060RS75000</t>
-  </si>
-  <si>
-    <t>646382</t>
-  </si>
-  <si>
-    <t>D211</t>
-  </si>
-  <si>
-    <t>SMDJ20A</t>
-  </si>
-  <si>
-    <t>Littelfuse</t>
-  </si>
-  <si>
-    <t>Vf:5V;If:-;Ur:20V;Ir:2uA;Pmax:6.5W</t>
-  </si>
-  <si>
-    <t>DO-214AB</t>
-  </si>
-  <si>
-    <t>2777300</t>
-  </si>
-  <si>
-    <t>SMDJ20ACT-ND</t>
-  </si>
-  <si>
-    <t>576-SMDJ20A</t>
-  </si>
-  <si>
-    <t>646377</t>
-  </si>
-  <si>
-    <t>D730</t>
-  </si>
-  <si>
-    <t>SMC5K40A-M3/I</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>Vf:-;If:-;Ur:40V;Ir:-;Pmax:5kW</t>
-  </si>
-  <si>
-    <t>SMC (DO-214AB)</t>
-  </si>
-  <si>
-    <t>SMC5K40A-M3/IGICT-ND</t>
-  </si>
-  <si>
-    <t>78-SMC5K40A-M3/I</t>
-  </si>
-  <si>
-    <t>646087</t>
-  </si>
-  <si>
-    <t>D731</t>
-  </si>
-  <si>
-    <t>PMEG6030ETPX</t>
-  </si>
-  <si>
-    <t>Vf:530mV;If:4.2A;Ur:60V;Ir:200uA;Pmax:750mW</t>
-  </si>
-  <si>
-    <t>SOD128</t>
-  </si>
-  <si>
-    <t>2311228</t>
-  </si>
-  <si>
-    <t>1727-1348-1-ND</t>
-  </si>
-  <si>
-    <t>771-PMEG6030ETPX</t>
-  </si>
-  <si>
-    <t>431580</t>
-  </si>
-  <si>
-    <t>G300</t>
-  </si>
-  <si>
-    <t>TLT807B0EPV</t>
-  </si>
-  <si>
-    <t>Linear Not applicable -;Vo:1.2V to 20V</t>
-  </si>
-  <si>
     <t>PG-TSDSO-14</t>
   </si>
   <si>
@@ -1111,9 +1114,6 @@
   </si>
   <si>
     <t>- Digital;Vdc min/max:3V/15V;Iout:2.4mA;Fmax:-</t>
-  </si>
-  <si>
-    <t>Integrated Circuit</t>
   </si>
   <si>
     <t>SO-16</t>
@@ -1690,7 +1690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910AEBD1-578F-4FA5-ACCC-E9025D85DB8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD009797-C0DE-4652-A156-79D1937E09F4}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2547,10 +2547,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="2" t="s">
@@ -2564,10 +2564,10 @@
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2575,31 +2575,31 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="2" t="s">
@@ -2612,13 +2612,13 @@
         <v>27</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2626,31 +2626,31 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="2" t="s">
@@ -2664,10 +2664,10 @@
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2675,29 +2675,29 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="2" t="s">
@@ -2711,10 +2711,10 @@
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2722,28 +2722,28 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>37</v>
@@ -2759,13 +2759,13 @@
         <v>27</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2773,31 +2773,31 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2" t="s">
@@ -2810,13 +2810,13 @@
         <v>27</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2824,31 +2824,31 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2" t="s">
@@ -2861,13 +2861,13 @@
         <v>27</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2875,31 +2875,31 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="2" t="s">
@@ -2912,13 +2912,13 @@
         <v>27</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2926,31 +2926,31 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="2" t="s">
@@ -2977,31 +2977,31 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="2" t="s">
@@ -3014,13 +3014,13 @@
         <v>27</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -3028,31 +3028,31 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="2" t="s">
@@ -3065,13 +3065,13 @@
         <v>27</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -3079,31 +3079,31 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="2" t="s">
@@ -3116,13 +3116,13 @@
         <v>27</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -3130,31 +3130,31 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="2" t="s">
@@ -3167,13 +3167,13 @@
         <v>27</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -3181,31 +3181,31 @@
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="2" t="s">
@@ -3218,13 +3218,13 @@
         <v>27</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -3232,28 +3232,28 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>45</v>
@@ -3283,28 +3283,28 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>45</v>
@@ -3334,31 +3334,31 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="2" t="s">
@@ -3371,13 +3371,13 @@
         <v>27</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -3385,28 +3385,28 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>45</v>
@@ -3436,28 +3436,28 @@
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>45</v>
@@ -3487,28 +3487,28 @@
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>45</v>
@@ -3524,13 +3524,13 @@
         <v>27</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -3538,28 +3538,28 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>45</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3608,28 +3608,28 @@
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>45</v>
@@ -3659,28 +3659,28 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>45</v>
@@ -3710,28 +3710,28 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>45</v>
@@ -3761,31 +3761,31 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="2" t="s">
@@ -3798,13 +3798,13 @@
         <v>27</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -3812,28 +3812,28 @@
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>45</v>
@@ -3863,19 +3863,19 @@
         <v>4</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>37</v>
@@ -3884,7 +3884,7 @@
         <v>7</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>37</v>
@@ -3900,13 +3900,13 @@
         <v>27</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -3914,19 +3914,19 @@
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>37</v>
@@ -3935,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>37</v>
@@ -3951,13 +3951,13 @@
         <v>27</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -3965,28 +3965,28 @@
         <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>37</v>
@@ -4002,13 +4002,13 @@
         <v>27</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -4016,28 +4016,28 @@
         <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>37</v>
@@ -4053,13 +4053,13 @@
         <v>27</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -4067,19 +4067,19 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>68</v>
@@ -4091,7 +4091,7 @@
         <v>69</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="2" t="s">
@@ -4104,13 +4104,13 @@
         <v>27</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -4118,28 +4118,28 @@
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>361</v>
+        <v>106</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>362</v>
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -4286,7 +4286,7 @@
         <v>7</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -4333,7 +4333,7 @@
         <v>7</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -4376,10 +4376,10 @@
         <v>7</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="2" t="s">
@@ -4421,7 +4421,7 @@
         <v>7</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4468,7 +4468,7 @@
         <v>7</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4515,10 +4515,10 @@
         <v>7</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="2" t="s">
@@ -4566,10 +4566,10 @@
         <v>7</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="2" t="s">
@@ -4620,7 +4620,7 @@
         <v>425</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="2" t="s">
